--- a/src/main/resources/template/excel/export/unpaidAccountsPayable.xlsx
+++ b/src/main/resources/template/excel/export/unpaidAccountsPayable.xlsx
@@ -34,7 +34,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="K4")</t>
+          <t>jx:area(lastCell="J4")</t>
         </r>
       </text>
     </comment>
@@ -47,7 +47,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="K3")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="J3")</t>
         </r>
       </text>
     </comment>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>${obj.branchName}</t>
   </si>
@@ -81,10 +81,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>应付款日期</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>应付金额</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -121,10 +117,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>${obj.payTime}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>${obj.payableAmount}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -161,19 +153,19 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>${obj.advanceAmount}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.surplusAmount}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(F3:F3+0)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>$[SUMPRODUCT(J3:J3+0)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUMPRODUCT(K3:K3+0)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.advanceAmount}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.surplusAmount}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -181,9 +173,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
-  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -286,9 +275,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -667,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -680,17 +669,16 @@
     <col min="3" max="3" width="19.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -701,9 +689,8 @@
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -717,7 +704,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>6</v>
@@ -732,13 +719,10 @@
         <v>9</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -746,63 +730,59 @@
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>29</v>
+      <c r="J3" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="G4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="1" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/template/excel/export/unpaidAccountsPayable.xlsx
+++ b/src/main/resources/template/excel/export/unpaidAccountsPayable.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\okdeer\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21330" windowHeight="4845"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21825" windowHeight="5880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -58,9 +58,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
-    <t>${obj.branchName}</t>
-  </si>
-  <si>
     <t>机构编号</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -69,10 +66,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>${obj.branchCode}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>供应商编号</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -166,13 +159,24 @@
   </si>
   <si>
     <t>$[SUMPRODUCT(J3:J3+0)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.branchCodeFull}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.branchNameFull}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -268,20 +272,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -290,74 +295,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -370,14 +307,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -659,7 +596,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="E3" sqref="E3:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -677,107 +614,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
+      <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="G3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J3" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>27</v>
+      <c r="E4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/template/excel/export/unpaidAccountsPayable.xlsx
+++ b/src/main/resources/template/excel/export/unpaidAccountsPayable.xlsx
@@ -126,10 +126,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>未付款账款汇总</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>预付金额</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -167,6 +163,10 @@
   </si>
   <si>
     <t>${obj.branchNameFull}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商未付款账款汇总</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -278,15 +278,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -596,7 +596,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:J4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -614,18 +614,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="A1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -641,7 +641,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>4</v>
@@ -656,15 +656,15 @@
         <v>7</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
@@ -672,23 +672,23 @@
       <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.15">
@@ -698,23 +698,23 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="E4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
